--- a/server/config/setting.xlsx
+++ b/server/config/setting.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="960" windowWidth="27760" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="16220" yWindow="840" windowWidth="27760" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,23 +41,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>need_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>need_5</t>
+    <t>battle_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100;200;500;1000;2000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,75 +381,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>500</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>500</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>2000</v>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1518537600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1519142400</v>
       </c>
     </row>
   </sheetData>
